--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spon2-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spon2-Itga5.xlsx
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Spon2</t>
+  </si>
+  <si>
+    <t>Itga5</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Spon2</t>
-  </si>
-  <si>
-    <t>Itga5</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H2">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I2">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J2">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N2">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q2">
-        <v>3.729775529414444</v>
+        <v>28.39272151168145</v>
       </c>
       <c r="R2">
-        <v>33.56797976473</v>
+        <v>255.534493605133</v>
       </c>
       <c r="S2">
-        <v>0.004897299650655959</v>
+        <v>0.03062805705673249</v>
       </c>
       <c r="T2">
-        <v>0.00489729965065596</v>
+        <v>0.03062805705673249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H3">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I3">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J3">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q3">
-        <v>13.19446710443556</v>
+        <v>60.69350566685779</v>
       </c>
       <c r="R3">
-        <v>118.75020393992</v>
+        <v>546.24155100172</v>
       </c>
       <c r="S3">
-        <v>0.01732470456507295</v>
+        <v>0.06547185530534053</v>
       </c>
       <c r="T3">
-        <v>0.01732470456507295</v>
+        <v>0.06547185530534053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H4">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I4">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J4">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N4">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q4">
-        <v>5.159862604413777</v>
+        <v>39.06200359713756</v>
       </c>
       <c r="R4">
-        <v>46.438763439724</v>
+        <v>351.5580323742381</v>
       </c>
       <c r="S4">
-        <v>0.00677504400217766</v>
+        <v>0.04213732292028413</v>
       </c>
       <c r="T4">
-        <v>0.006775044002177662</v>
+        <v>0.04213732292028413</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H5">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I5">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J5">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N5">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q5">
-        <v>1.371566107112445</v>
+        <v>5.664916249778223</v>
       </c>
       <c r="R5">
-        <v>12.344094964012</v>
+        <v>50.98424624800401</v>
       </c>
       <c r="S5">
-        <v>0.001800904682933522</v>
+        <v>0.006110910433451551</v>
       </c>
       <c r="T5">
-        <v>0.001800904682933522</v>
+        <v>0.006110910433451552</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H6">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I6">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J6">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N6">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q6">
-        <v>3.872528822308</v>
+        <v>21.49316794361978</v>
       </c>
       <c r="R6">
-        <v>34.852759400772</v>
+        <v>193.438511492578</v>
       </c>
       <c r="S6">
-        <v>0.005084738719281988</v>
+        <v>0.02318530732731212</v>
       </c>
       <c r="T6">
-        <v>0.005084738719281988</v>
+        <v>0.02318530732731212</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H7">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I7">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J7">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N7">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q7">
-        <v>3.818314086576889</v>
+        <v>27.39458178186411</v>
       </c>
       <c r="R7">
-        <v>34.364826779192</v>
+        <v>246.551236036777</v>
       </c>
       <c r="S7">
-        <v>0.005013553254027445</v>
+        <v>0.02955133460929612</v>
       </c>
       <c r="T7">
-        <v>0.005013553254027446</v>
+        <v>0.02955133460929612</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H8">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I8">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J8">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N8">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q8">
-        <v>62.10919797472778</v>
+        <v>102.7850331247256</v>
       </c>
       <c r="R8">
-        <v>558.98278177255</v>
+        <v>925.0652981225302</v>
       </c>
       <c r="S8">
-        <v>0.0815511151127931</v>
+        <v>0.1108772140010258</v>
       </c>
       <c r="T8">
-        <v>0.0815511151127931</v>
+        <v>0.1108772140010258</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H9">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I9">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J9">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q9">
         <v>219.7177184250223</v>
@@ -1013,10 +1013,10 @@
         <v>1977.4594658252</v>
       </c>
       <c r="S9">
-        <v>0.2884955132553825</v>
+        <v>0.2370159131638007</v>
       </c>
       <c r="T9">
-        <v>0.2884955132553825</v>
+        <v>0.2370159131638007</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H10">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I10">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J10">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N10">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q10">
-        <v>85.92338211577112</v>
+        <v>141.4091048650644</v>
       </c>
       <c r="R10">
-        <v>773.3104390419401</v>
+        <v>1272.68194378558</v>
       </c>
       <c r="S10">
-        <v>0.1128198053475906</v>
+        <v>0.152542127050651</v>
       </c>
       <c r="T10">
-        <v>0.1128198053475906</v>
+        <v>0.152542127050651</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H11">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I11">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J11">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N11">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q11">
-        <v>22.83967767235778</v>
+        <v>20.50767145173778</v>
       </c>
       <c r="R11">
-        <v>205.55709905122</v>
+        <v>184.56904306564</v>
       </c>
       <c r="S11">
-        <v>0.02998913596912702</v>
+        <v>0.02212222350950504</v>
       </c>
       <c r="T11">
-        <v>0.02998913596912701</v>
+        <v>0.02212222350950504</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1166,13 +1166,13 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H12">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I12">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J12">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N12">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q12">
-        <v>64.48636315798001</v>
+        <v>77.80782754944224</v>
       </c>
       <c r="R12">
-        <v>580.3772684218201</v>
+        <v>700.2704479449801</v>
       </c>
       <c r="S12">
-        <v>0.08467239952513422</v>
+        <v>0.08393357363309654</v>
       </c>
       <c r="T12">
-        <v>0.08467239952513421</v>
+        <v>0.08393357363309654</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1228,13 +1228,13 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H13">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I13">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J13">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N13">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q13">
-        <v>63.58356519383556</v>
+        <v>99.17164843561889</v>
       </c>
       <c r="R13">
-        <v>572.2520867445201</v>
+        <v>892.54483592057</v>
       </c>
       <c r="S13">
-        <v>0.08348700053274188</v>
+        <v>0.1069793505158242</v>
       </c>
       <c r="T13">
-        <v>0.08348700053274188</v>
+        <v>0.1069793505158242</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H14">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I14">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J14">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N14">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q14">
-        <v>1.296163416060555</v>
+        <v>4.320363426591778</v>
       </c>
       <c r="R14">
-        <v>11.665470744545</v>
+        <v>38.883270839326</v>
       </c>
       <c r="S14">
-        <v>0.001701898839382152</v>
+        <v>0.004660502075541855</v>
       </c>
       <c r="T14">
-        <v>0.001701898839382152</v>
+        <v>0.004660502075541855</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H15">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I15">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J15">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q15">
-        <v>4.585312284964444</v>
+        <v>9.235395134871112</v>
       </c>
       <c r="R15">
-        <v>41.26781056468</v>
+        <v>83.11855621384001</v>
       </c>
       <c r="S15">
-        <v>0.006020643353523818</v>
+        <v>0.009962490176080013</v>
       </c>
       <c r="T15">
-        <v>0.006020643353523817</v>
+        <v>0.009962490176080013</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H16">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I16">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J16">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N16">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q16">
-        <v>1.793144141516222</v>
+        <v>5.943849082626222</v>
       </c>
       <c r="R16">
-        <v>16.138297273646</v>
+        <v>53.494641743636</v>
       </c>
       <c r="S16">
-        <v>0.002354448440279685</v>
+        <v>0.006411803418153623</v>
       </c>
       <c r="T16">
-        <v>0.002354448440279685</v>
+        <v>0.006411803418153623</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H17">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I17">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J17">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N17">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q17">
-        <v>0.4766436469775555</v>
+        <v>0.8619989799208888</v>
       </c>
       <c r="R17">
-        <v>4.289792822798</v>
+        <v>7.757990819288</v>
       </c>
       <c r="S17">
-        <v>0.0006258464477075469</v>
+        <v>0.000929863448595445</v>
       </c>
       <c r="T17">
-        <v>0.0006258464477075468</v>
+        <v>0.0009298634485954453</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H18">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I18">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J18">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N18">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q18">
-        <v>1.345772727482</v>
+        <v>3.270496513235111</v>
       </c>
       <c r="R18">
-        <v>12.111954547338</v>
+        <v>29.434468619116</v>
       </c>
       <c r="S18">
-        <v>0.001767037253631887</v>
+        <v>0.003527980006072956</v>
       </c>
       <c r="T18">
-        <v>0.001767037253631886</v>
+        <v>0.003527980006072956</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H19">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I19">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J19">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N19">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q19">
-        <v>1.326932141363111</v>
+        <v>4.168482023410443</v>
       </c>
       <c r="R19">
-        <v>11.942389272268</v>
+        <v>37.51633821069399</v>
       </c>
       <c r="S19">
-        <v>0.001742299036790008</v>
+        <v>0.004496663174766507</v>
       </c>
       <c r="T19">
-        <v>0.001742299036790008</v>
+        <v>0.004496663174766507</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H20">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I20">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J20">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N20">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q20">
-        <v>20.57550997394777</v>
+        <v>3.599633416213112</v>
       </c>
       <c r="R20">
-        <v>185.17958976553</v>
+        <v>32.396700745918</v>
       </c>
       <c r="S20">
-        <v>0.02701622041670217</v>
+        <v>0.003883029585935842</v>
       </c>
       <c r="T20">
-        <v>0.02701622041670217</v>
+        <v>0.003883029585935842</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H21">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I21">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J21">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q21">
-        <v>72.78799685590222</v>
+        <v>7.694731590124446</v>
       </c>
       <c r="R21">
-        <v>655.0919717031201</v>
+        <v>69.25258431112002</v>
       </c>
       <c r="S21">
-        <v>0.09557267689788297</v>
+        <v>0.008300531461262396</v>
       </c>
       <c r="T21">
-        <v>0.09557267689788296</v>
+        <v>0.008300531461262396</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H22">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I22">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J22">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N22">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q22">
-        <v>28.46466326030711</v>
+        <v>4.95228657086089</v>
       </c>
       <c r="R22">
-        <v>256.181969342764</v>
+        <v>44.57057913774801</v>
       </c>
       <c r="S22">
-        <v>0.03737489946549856</v>
+        <v>0.005342176007721313</v>
       </c>
       <c r="T22">
-        <v>0.03737489946549856</v>
+        <v>0.005342176007721313</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H23">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I23">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J23">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N23">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q23">
-        <v>7.566319177725777</v>
+        <v>0.7181989167315557</v>
       </c>
       <c r="R23">
-        <v>68.09687259953201</v>
+        <v>6.463790250584001</v>
       </c>
       <c r="S23">
-        <v>0.009934788829408538</v>
+        <v>0.0007747421250438231</v>
       </c>
       <c r="T23">
-        <v>0.009934788829408537</v>
+        <v>0.0007747421250438233</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H24">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I24">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J24">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N24">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q24">
-        <v>21.363016293988</v>
+        <v>2.724906998376445</v>
       </c>
       <c r="R24">
-        <v>192.267146645892</v>
+        <v>24.524162985388</v>
       </c>
       <c r="S24">
-        <v>0.02805023825386349</v>
+        <v>0.002939436678735659</v>
       </c>
       <c r="T24">
-        <v>0.02805023825386349</v>
+        <v>0.002939436678735659</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,25 +1960,25 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H25">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I25">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J25">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N25">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q25">
-        <v>21.06393774972355</v>
+        <v>3.473089114215778</v>
       </c>
       <c r="R25">
-        <v>189.575439747512</v>
+        <v>31.257802027942</v>
       </c>
       <c r="S25">
-        <v>0.02765753975530937</v>
+        <v>0.003746522555421556</v>
       </c>
       <c r="T25">
-        <v>0.02765753975530937</v>
+        <v>0.003746522555421556</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1428456666666667</v>
+        <v>0.122805</v>
       </c>
       <c r="H26">
-        <v>0.428537</v>
+        <v>0.368415</v>
       </c>
       <c r="I26">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="J26">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N26">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q26">
-        <v>3.490282210517222</v>
+        <v>4.965734342715001</v>
       </c>
       <c r="R26">
-        <v>31.41253989465499</v>
+        <v>44.691609084435</v>
       </c>
       <c r="S26">
-        <v>0.004582838220545731</v>
+        <v>0.005356682511561185</v>
       </c>
       <c r="T26">
-        <v>0.00458283822054573</v>
+        <v>0.005356682511561185</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.1428456666666667</v>
+        <v>0.122805</v>
       </c>
       <c r="H27">
-        <v>0.428537</v>
+        <v>0.368415</v>
       </c>
       <c r="I27">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="J27">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q27">
-        <v>12.34723469245778</v>
+        <v>10.6149678306</v>
       </c>
       <c r="R27">
-        <v>111.12511223212</v>
+        <v>95.5347104754</v>
       </c>
       <c r="S27">
-        <v>0.01621226469771864</v>
+        <v>0.01145067549221149</v>
       </c>
       <c r="T27">
-        <v>0.01621226469771863</v>
+        <v>0.01145067549221149</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.1428456666666667</v>
+        <v>0.122805</v>
       </c>
       <c r="H28">
-        <v>0.428537</v>
+        <v>0.368415</v>
       </c>
       <c r="I28">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="J28">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N28">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q28">
-        <v>4.828541695034889</v>
+        <v>6.83173441749</v>
       </c>
       <c r="R28">
-        <v>43.456875255314</v>
+        <v>61.48560975741</v>
       </c>
       <c r="S28">
-        <v>0.00634001037590177</v>
+        <v>0.007369591233064409</v>
       </c>
       <c r="T28">
-        <v>0.00634001037590177</v>
+        <v>0.007369591233064409</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.1428456666666667</v>
+        <v>0.122805</v>
       </c>
       <c r="H29">
-        <v>0.428537</v>
+        <v>0.368415</v>
       </c>
       <c r="I29">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="J29">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N29">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q29">
-        <v>1.283496217520222</v>
+        <v>0.99076339542</v>
       </c>
       <c r="R29">
-        <v>11.551465957682</v>
+        <v>8.916870558780001</v>
       </c>
       <c r="S29">
-        <v>0.001685266453197747</v>
+        <v>0.001068765380316256</v>
       </c>
       <c r="T29">
-        <v>0.001685266453197747</v>
+        <v>0.001068765380316257</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.1428456666666667</v>
+        <v>0.122805</v>
       </c>
       <c r="H30">
-        <v>0.428537</v>
+        <v>0.368415</v>
       </c>
       <c r="I30">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="J30">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N30">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q30">
-        <v>3.623869144838</v>
+        <v>3.75903951819</v>
       </c>
       <c r="R30">
-        <v>32.614822303542</v>
+        <v>33.83135566371</v>
       </c>
       <c r="S30">
-        <v>0.004758241603838359</v>
+        <v>0.004054985598836217</v>
       </c>
       <c r="T30">
-        <v>0.004758241603838358</v>
+        <v>0.004054985598836217</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,7 +2332,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.1428456666666667</v>
+        <v>0.122805</v>
       </c>
       <c r="H31">
-        <v>0.428537</v>
+        <v>0.368415</v>
       </c>
       <c r="I31">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="J31">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N31">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q31">
-        <v>3.573135601712445</v>
+        <v>4.791165070334999</v>
       </c>
       <c r="R31">
-        <v>32.158220415412</v>
+        <v>43.12048563301499</v>
       </c>
       <c r="S31">
-        <v>0.004691627041898668</v>
+        <v>0.005168369544359109</v>
       </c>
       <c r="T31">
-        <v>0.004691627041898667</v>
+        <v>0.005168369544359109</v>
       </c>
     </row>
   </sheetData>
